--- a/atividades/Homex.xlsx
+++ b/atividades/Homex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Aulas\Projeto2 - Sistema de Vendas\SistemaVendas\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32EACF77-2F55-4F1D-8DDC-BBA2B74EC90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072792DB-DC70-4A51-8A65-BABB0D6D8BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F998B876-A264-41B5-A99B-692D0BD5466C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>NOME DA EMPRESA</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>CARD</t>
+  </si>
+  <si>
+    <t>.{ width: 30%}</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Container dos cards</t>
+  </si>
+  <si>
+    <t>.{justify-content: space-around}</t>
   </si>
 </sst>
 </file>
@@ -317,12 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,9 +346,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,30 +353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -384,17 +363,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -404,6 +374,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,7 +733,7 @@
   <dimension ref="B1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,151 +747,151 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="32" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="39">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="27">
         <v>44365</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
     </row>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="41" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="41" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="32" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="39">
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="27">
         <v>44369</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
       <c r="Y6" t="s">
         <v>11</v>
       </c>
@@ -905,9 +917,9 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -933,184 +945,196 @@
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="48"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
       <c r="U11" s="3"/>
+      <c r="W11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47" t="s">
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="48"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
       <c r="U12" s="3"/>
+      <c r="W12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="34"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="48"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="34"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="48"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="48"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="51"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
@@ -1159,184 +1183,184 @@
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="45"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="48"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="48"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47" t="s">
+      <c r="J22" s="32"/>
+      <c r="K22" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="48"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="47" t="s">
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="48"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="48"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34"/>
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="48"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="48"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="34"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="48"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="51"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="37"/>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
@@ -1426,12 +1450,12 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="32" t="s">
+      <c r="V30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="39">
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="27">
         <v>44368</v>
       </c>
     </row>
@@ -1440,7 +1464,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -1460,9 +1484,9 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
       <c r="Y31" t="s">
         <v>11</v>
       </c>
@@ -1472,7 +1496,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -1492,16 +1516,16 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -1521,36 +1545,36 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
     </row>
     <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="35" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/atividades/Homex.xlsx
+++ b/atividades/Homex.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Aulas\Projeto2 - Sistema de Vendas\SistemaVendas\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072792DB-DC70-4A51-8A65-BABB0D6D8BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D77A9-BE72-475F-AF30-8A1A687FBE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F998B876-A264-41B5-A99B-692D0BD5466C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F998B876-A264-41B5-A99B-692D0BD5466C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>NOME DA EMPRESA</t>
   </si>
@@ -80,6 +81,30 @@
   <si>
     <t>.{justify-content: space-around}</t>
   </si>
+  <si>
+    <t>Tabelas de produtos</t>
+  </si>
+  <si>
+    <t>(não deixar colado nos cantos da tela, alinhado vertical com os cards)</t>
+  </si>
+  <si>
+    <t>ALINHADA NO CENTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARGIN-TOP </t>
+  </si>
+  <si>
+    <t>Título da tabela</t>
+  </si>
+  <si>
+    <t>(na mesma posição do titulo da tela anterior)</t>
+  </si>
+  <si>
+    <t>BOTÃO VOLTAR</t>
+  </si>
+  <si>
+    <t>Botão esconde tabelas e volta para lista de cards</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +165,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -315,11 +346,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -374,6 +478,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,6 +523,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9254FB02-F567-42A1-B6CF-A595A71E2457}">
-  <dimension ref="B1:Y34"/>
+  <dimension ref="B1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,22 +859,22 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -771,28 +883,28 @@
       <c r="S2" s="5"/>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
       <c r="Y2" s="27">
         <v>44365</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -803,23 +915,23 @@
         <v>1</v>
       </c>
       <c r="U3" s="12"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
     </row>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -828,26 +940,26 @@
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
       <c r="U4" s="21"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="50"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -859,25 +971,25 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
       <c r="Y5" s="27">
         <v>44369</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -889,9 +1001,9 @@
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
       <c r="U6" s="17"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
       <c r="Y6" t="s">
         <v>11</v>
       </c>
@@ -923,9 +1035,13 @@
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -942,112 +1058,100 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="3"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
       <c r="U11" s="3"/>
-      <c r="W11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="32"/>
-      <c r="D12" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="32"/>
-      <c r="K12" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" s="34"/>
       <c r="O12" s="2"/>
       <c r="P12" s="32"/>
-      <c r="Q12" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q12" s="33"/>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
       <c r="U12" s="3"/>
-      <c r="W12" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -1070,28 +1174,46 @@
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
       <c r="U13" s="3"/>
+      <c r="W13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
+      <c r="K14" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="34"/>
       <c r="O14" s="2"/>
       <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
       <c r="U14" s="3"/>
+      <c r="W14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -1115,161 +1237,155 @@
       <c r="T15" s="34"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="34"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="31"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="31"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="32"/>
-      <c r="K22" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
       <c r="N22" s="34"/>
       <c r="O22" s="2"/>
       <c r="P22" s="32"/>
-      <c r="Q22" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
@@ -1300,20 +1416,26 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
+      <c r="K24" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="34"/>
       <c r="O24" s="2"/>
       <c r="P24" s="32"/>
-      <c r="Q24" s="33"/>
+      <c r="Q24" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
@@ -1341,70 +1463,70 @@
       <c r="T25" s="34"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="37"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="34"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
       <c r="U27" s="3"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="37"/>
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
@@ -1430,78 +1552,56 @@
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="27">
-        <v>44368</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="3"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" t="s">
-        <v>11</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="3"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1516,17 +1616,22 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V32" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="27">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>8</v>
@@ -1545,43 +1650,104 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-    </row>
-    <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="24" t="s">
+      <c r="V33" s="48"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+    </row>
+    <row r="36" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="I2:M4"/>
     <mergeCell ref="B2:C4"/>
     <mergeCell ref="V2:X4"/>
-    <mergeCell ref="V30:X34"/>
+    <mergeCell ref="V32:X36"/>
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="I5:J6"/>
@@ -1590,4 +1756,842 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D988318-5E3C-4F86-8416-CA76659A39CB}">
+  <dimension ref="B1:W36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="12"/>
+    </row>
+    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="3"/>
+      <c r="W8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="I2:M4"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="I5:J6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/atividades/Homex.xlsx
+++ b/atividades/Homex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Aulas\Projeto2 - Sistema de Vendas\SistemaVendas\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D77A9-BE72-475F-AF30-8A1A687FBE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE2CA1-74E9-4189-A340-46EB61F0B705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F998B876-A264-41B5-A99B-692D0BD5466C}"/>
   </bookViews>
@@ -481,6 +481,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,11 +528,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +845,7 @@
   <dimension ref="B1:Y36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,22 +859,22 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -883,28 +883,28 @@
       <c r="S2" s="5"/>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
       <c r="Y2" s="27">
         <v>44365</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -915,23 +915,23 @@
         <v>1</v>
       </c>
       <c r="U3" s="12"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
     </row>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -940,26 +940,26 @@
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
       <c r="U4" s="21"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -971,25 +971,25 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="48" t="s">
+      <c r="V5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
       <c r="Y5" s="27">
         <v>44369</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -1001,9 +1001,9 @@
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
       <c r="U6" s="17"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
       <c r="Y6" t="s">
         <v>11</v>
       </c>
@@ -1616,11 +1616,11 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="48" t="s">
+      <c r="V32" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
       <c r="Y32" s="27">
         <v>44368</v>
       </c>
@@ -1650,9 +1650,9 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
       <c r="Y33" t="s">
         <v>11</v>
       </c>
@@ -1682,9 +1682,9 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="8"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
@@ -1711,9 +1711,9 @@
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
     </row>
     <row r="36" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
@@ -1738,9 +1738,9 @@
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
       <c r="U36" s="23"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1763,7 +1763,7 @@
   <dimension ref="B1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,22 +1775,22 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -1801,18 +1801,18 @@
       <c r="U2" s="11"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -1825,18 +1825,18 @@
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -1848,20 +1848,20 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -1876,14 +1876,14 @@
     </row>
     <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -1996,400 +1996,400 @@
     <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
       <c r="T14" s="2"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
       <c r="T15" s="2"/>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
       <c r="T16" s="2"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="2"/>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
       <c r="T18" s="2"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
       <c r="T20" s="2"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
       <c r="T21" s="2"/>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
       <c r="T22" s="2"/>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
       <c r="T23" s="2"/>
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
       <c r="T24" s="2"/>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
       <c r="T25" s="2"/>
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
       <c r="T26" s="2"/>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
       <c r="T27" s="2"/>
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
       <c r="T28" s="2"/>
       <c r="U28" s="3"/>
     </row>

--- a/atividades/Homex.xlsx
+++ b/atividades/Homex.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Aulas\Projeto2 - Sistema de Vendas\SistemaVendas\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE2CA1-74E9-4189-A340-46EB61F0B705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9182383A-6A44-42B4-8484-1B055090A194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F998B876-A264-41B5-A99B-692D0BD5466C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{F998B876-A264-41B5-A99B-692D0BD5466C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelas" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId1"/>
+    <sheet name="Novo Cadastro" sheetId="4" r:id="rId2"/>
+    <sheet name="Home" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabelas" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>NOME DA EMPRESA</t>
   </si>
@@ -105,6 +107,42 @@
   <si>
     <t>Botão esconde tabelas e volta para lista de cards</t>
   </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Entrar</t>
+  </si>
+  <si>
+    <t>Novo cadastro</t>
+  </si>
+  <si>
+    <t>Cadastrar</t>
+  </si>
+  <si>
+    <t>Voltar</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Sobrenome</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Confirmar senha</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>Cadastra-se</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +209,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -423,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -527,6 +577,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,11 +907,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193C0D31-A9C2-48DB-B449-45F9DF278830}">
+  <dimension ref="B1:S31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="60"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="60"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="60"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="60"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="60"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="60"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="60"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="60"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="60"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="60"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="60"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="60"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="60"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="60"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="60"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="60"/>
+    </row>
+    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="60"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="60"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="60"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="60"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="60"/>
+    </row>
+    <row r="31" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F4310C-11C1-4AFA-BB65-85E7458E0AD4}">
+  <dimension ref="B1:S30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="60"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="60"/>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="60"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="60"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="60"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="60"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="60"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="60"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="60"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="60"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="60"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="60"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="60"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="60"/>
+    </row>
+    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="60"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="60"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="60"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="60"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="60"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="60"/>
+    </row>
+    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9254FB02-F567-42A1-B6CF-A595A71E2457}">
   <dimension ref="B1:Y36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,12 +3083,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D988318-5E3C-4F86-8416-CA76659A39CB}">
   <dimension ref="B1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
